--- a/SchedulingData/dynamic12/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_2.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.56</v>
+        <v>49.12</v>
       </c>
       <c r="E2" t="n">
-        <v>27.404</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.4</v>
+        <v>65.7</v>
       </c>
       <c r="E3" t="n">
-        <v>27.12</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.76</v>
+        <v>90.62</v>
       </c>
       <c r="E4" t="n">
-        <v>27.624</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.62</v>
+        <v>42.36</v>
       </c>
       <c r="E5" t="n">
-        <v>26.568</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="6">
@@ -542,98 +542,98 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>65.7</v>
       </c>
       <c r="D6" t="n">
-        <v>69.5</v>
+        <v>135.88</v>
       </c>
       <c r="E6" t="n">
-        <v>27.68</v>
+        <v>22.692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90.62</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>137.42</v>
+        <v>55.28</v>
       </c>
       <c r="E7" t="n">
-        <v>23.028</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50.76</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>115.66</v>
+        <v>47.54</v>
       </c>
       <c r="E8" t="n">
-        <v>24.264</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.56</v>
+        <v>47.54</v>
       </c>
       <c r="D9" t="n">
-        <v>96.66</v>
+        <v>118.74</v>
       </c>
       <c r="E9" t="n">
-        <v>25.124</v>
+        <v>22.896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>137.42</v>
+        <v>49.12</v>
       </c>
       <c r="D10" t="n">
-        <v>171.02</v>
+        <v>103.92</v>
       </c>
       <c r="E10" t="n">
-        <v>20.308</v>
+        <v>22.908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>42.36</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6</v>
+        <v>95.36</v>
       </c>
       <c r="E11" t="n">
-        <v>25.84</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="12">
@@ -660,51 +660,51 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53.6</v>
+        <v>118.74</v>
       </c>
       <c r="D12" t="n">
-        <v>109.2</v>
+        <v>193.64</v>
       </c>
       <c r="E12" t="n">
-        <v>22.42</v>
+        <v>19.476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>115.66</v>
+        <v>193.64</v>
       </c>
       <c r="D13" t="n">
-        <v>180.64</v>
+        <v>245.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20.856</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.4</v>
+        <v>103.92</v>
       </c>
       <c r="D14" t="n">
-        <v>94.92</v>
+        <v>146.46</v>
       </c>
       <c r="E14" t="n">
-        <v>24.788</v>
+        <v>19.784</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>180.64</v>
+        <v>146.46</v>
       </c>
       <c r="D15" t="n">
-        <v>237.26</v>
+        <v>191.26</v>
       </c>
       <c r="E15" t="n">
-        <v>18.304</v>
+        <v>16.924</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.66</v>
+        <v>95.36</v>
       </c>
       <c r="D16" t="n">
-        <v>151.26</v>
+        <v>167.06</v>
       </c>
       <c r="E16" t="n">
-        <v>22.764</v>
+        <v>18.224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>151.26</v>
+        <v>135.88</v>
       </c>
       <c r="D17" t="n">
-        <v>209.24</v>
+        <v>170.6</v>
       </c>
       <c r="E17" t="n">
-        <v>20.076</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>171.02</v>
+        <v>55.28</v>
       </c>
       <c r="D18" t="n">
-        <v>221.86</v>
+        <v>118.92</v>
       </c>
       <c r="E18" t="n">
-        <v>17.344</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>209.24</v>
+        <v>167.06</v>
       </c>
       <c r="D19" t="n">
-        <v>247.56</v>
+        <v>216.58</v>
       </c>
       <c r="E19" t="n">
-        <v>16.884</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>109.2</v>
+        <v>245.6</v>
       </c>
       <c r="D20" t="n">
-        <v>155.96</v>
+        <v>305.28</v>
       </c>
       <c r="E20" t="n">
-        <v>18.884</v>
+        <v>13.032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>155.96</v>
+        <v>216.58</v>
       </c>
       <c r="D21" t="n">
-        <v>216.06</v>
+        <v>279.56</v>
       </c>
       <c r="E21" t="n">
-        <v>14.984</v>
+        <v>12.704</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>94.92</v>
+        <v>118.92</v>
       </c>
       <c r="D22" t="n">
-        <v>171.46</v>
+        <v>167.22</v>
       </c>
       <c r="E22" t="n">
-        <v>21.224</v>
+        <v>19.688</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>171.46</v>
+        <v>167.22</v>
       </c>
       <c r="D23" t="n">
-        <v>250.86</v>
+        <v>232.84</v>
       </c>
       <c r="E23" t="n">
-        <v>18.364</v>
+        <v>16.216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>216.06</v>
+        <v>279.56</v>
       </c>
       <c r="D24" t="n">
-        <v>270.84</v>
+        <v>329.32</v>
       </c>
       <c r="E24" t="n">
-        <v>11.136</v>
+        <v>10.328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>247.56</v>
+        <v>170.6</v>
       </c>
       <c r="D25" t="n">
-        <v>295.1</v>
+        <v>219.74</v>
       </c>
       <c r="E25" t="n">
-        <v>13.76</v>
+        <v>17.576</v>
       </c>
     </row>
     <row r="26">
@@ -926,89 +926,89 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>237.26</v>
+        <v>191.26</v>
       </c>
       <c r="D26" t="n">
-        <v>299.26</v>
+        <v>243.26</v>
       </c>
       <c r="E26" t="n">
-        <v>15.224</v>
+        <v>13.844</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>270.84</v>
+        <v>329.32</v>
       </c>
       <c r="D27" t="n">
-        <v>336.58</v>
+        <v>388.02</v>
       </c>
       <c r="E27" t="n">
-        <v>8.172000000000001</v>
+        <v>8.048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>221.86</v>
+        <v>232.84</v>
       </c>
       <c r="D28" t="n">
-        <v>288.42</v>
+        <v>300.24</v>
       </c>
       <c r="E28" t="n">
-        <v>12.808</v>
+        <v>11.596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>69.5</v>
+        <v>90.62</v>
       </c>
       <c r="D29" t="n">
-        <v>131.7</v>
+        <v>154.28</v>
       </c>
       <c r="E29" t="n">
-        <v>25.04</v>
+        <v>23.292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>131.7</v>
+        <v>154.28</v>
       </c>
       <c r="D30" t="n">
-        <v>189.2</v>
+        <v>208.38</v>
       </c>
       <c r="E30" t="n">
-        <v>20.42</v>
+        <v>20.972</v>
       </c>
     </row>
     <row r="31">
@@ -1017,74 +1017,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288.42</v>
+        <v>208.38</v>
       </c>
       <c r="D31" t="n">
-        <v>344.44</v>
+        <v>277.78</v>
       </c>
       <c r="E31" t="n">
-        <v>9.336</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>189.2</v>
+        <v>388.02</v>
       </c>
       <c r="D32" t="n">
-        <v>247.72</v>
+        <v>431.24</v>
       </c>
       <c r="E32" t="n">
-        <v>16.208</v>
+        <v>4.856</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>295.1</v>
+        <v>219.74</v>
       </c>
       <c r="D33" t="n">
-        <v>354.88</v>
+        <v>286.28</v>
       </c>
       <c r="E33" t="n">
-        <v>9.912000000000001</v>
+        <v>14.552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>250.86</v>
+        <v>277.78</v>
       </c>
       <c r="D34" t="n">
-        <v>297.4</v>
+        <v>315.58</v>
       </c>
       <c r="E34" t="n">
-        <v>15.34</v>
+        <v>15.972</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>297.4</v>
+        <v>300.24</v>
       </c>
       <c r="D35" t="n">
-        <v>361.54</v>
+        <v>355.14</v>
       </c>
       <c r="E35" t="n">
-        <v>12.556</v>
+        <v>8.236000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>299.26</v>
+        <v>305.28</v>
       </c>
       <c r="D36" t="n">
-        <v>343.78</v>
+        <v>361.54</v>
       </c>
       <c r="E36" t="n">
-        <v>12.392</v>
+        <v>10.016</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>344.44</v>
+        <v>243.26</v>
       </c>
       <c r="D37" t="n">
-        <v>398.08</v>
+        <v>299.3</v>
       </c>
       <c r="E37" t="n">
-        <v>5.592</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>247.72</v>
+        <v>286.28</v>
       </c>
       <c r="D38" t="n">
-        <v>324.42</v>
+        <v>350.78</v>
       </c>
       <c r="E38" t="n">
-        <v>12.128</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>324.42</v>
+        <v>350.78</v>
       </c>
       <c r="D39" t="n">
-        <v>394.02</v>
+        <v>407.5</v>
       </c>
       <c r="E39" t="n">
-        <v>8.768000000000001</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>361.54</v>
+        <v>299.3</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9</v>
+        <v>365.86</v>
       </c>
       <c r="E40" t="n">
-        <v>9.539999999999999</v>
+        <v>6.344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>354.88</v>
+        <v>361.54</v>
       </c>
       <c r="D41" t="n">
-        <v>413.64</v>
+        <v>407.38</v>
       </c>
       <c r="E41" t="n">
-        <v>6.636</v>
+        <v>7.052</v>
       </c>
     </row>
   </sheetData>
